--- a/biology/Médecine/Argenx/Argenx.xlsx
+++ b/biology/Médecine/Argenx/Argenx.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Argenx est une société belgo-néerlandaise spécialisée dans l’immunologie.
 </t>
@@ -511,11 +523,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2008, la société Argenx, installée à Gand, est créée par trois scientifiques : Tim Van Hauwermeiren, ancien cadre d’Ablynx et deux de ses collègues, Hans de Haard, et Torsten Dreier[1]. Ce trio est alors convaincu qu’une nouvelle approche est possible pour traiter les maladies auto-immunes. S'appuyant sur une collaboration avec des chercheurs, dont la scientifique Sally Ward (en), ils s’emploient pendant plus d’une décennie à mettre au point une nouvelle génération de médicaments ciblant les auto-anticorps Immunoglobuline G[1]. 
-Ayant des besoins financiers pour mener à bien ces recherches, et pour la certification et la commercialisation de ses produits, la société rentre sur le Nasdaq et son cours y progresse rapidement[2],[3]. Elle rentre aussi sur la Bourse de valeurs de Bruxelles et est intégrée dès juin 2018 au BEL20[4]. En 2021, elle reçoit un feu vert de la Food and Drug Administration pour la mise sur le marché américain d'un premier médicament, le Vyvgart, destiné au traitement de la myasthénie[1],[5].
-En 2023, l’étude finale pour son traitement contre le pemphigus n'a pas été concluante[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2008, la société Argenx, installée à Gand, est créée par trois scientifiques : Tim Van Hauwermeiren, ancien cadre d’Ablynx et deux de ses collègues, Hans de Haard, et Torsten Dreier. Ce trio est alors convaincu qu’une nouvelle approche est possible pour traiter les maladies auto-immunes. S'appuyant sur une collaboration avec des chercheurs, dont la scientifique Sally Ward (en), ils s’emploient pendant plus d’une décennie à mettre au point une nouvelle génération de médicaments ciblant les auto-anticorps Immunoglobuline G. 
+Ayant des besoins financiers pour mener à bien ces recherches, et pour la certification et la commercialisation de ses produits, la société rentre sur le Nasdaq et son cours y progresse rapidement,. Elle rentre aussi sur la Bourse de valeurs de Bruxelles et est intégrée dès juin 2018 au BEL20. En 2021, elle reçoit un feu vert de la Food and Drug Administration pour la mise sur le marché américain d'un premier médicament, le Vyvgart, destiné au traitement de la myasthénie,.
+En 2023, l’étude finale pour son traitement contre le pemphigus n'a pas été concluante.
 </t>
         </is>
       </c>
